--- a/Assets/Resources/MonsterData.xlsx
+++ b/Assets/Resources/MonsterData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School File\Unity Development\P_Biography_Of_Witch\Assets\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hong Ki Tae\Unity-Biography_Of_Witch\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB17D59-D294-46C4-A5CD-BE19FD8DF289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A89449-C7A1-466B-93A7-588606186DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6030" yWindow="1365" windowWidth="22665" windowHeight="13515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4305" yWindow="-14670" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -111,10 +111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>지능이 낮은 대신 번식력이 어마어마한 몬스터. 들리는 소문으로는 수컷 고블린은 암컷의 종족에 상관 없이 번식이 가능하다고 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>몽둥이 고블린</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -240,6 +236,10 @@
   </si>
   <si>
     <t>IsBoss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지능이 낮은 대신 번식력이 어마어마한 몬스터. 들리는 소문으로는 고블린은 암컷의 종족과는 상관 없이 번식이 가능하다고 한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -572,16 +572,16 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="11" max="11" width="44.875" customWidth="1"/>
+    <col min="11" max="11" width="44.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -592,7 +592,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E1" t="s">
         <v>8</v>
@@ -616,7 +616,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -651,7 +651,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -659,7 +659,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -718,10 +718,10 @@
         <v>5</v>
       </c>
       <c r="K4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -729,7 +729,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1" t="b">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -764,7 +764,7 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="b">
         <v>0</v>
@@ -788,10 +788,10 @@
         <v>5</v>
       </c>
       <c r="K6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -799,7 +799,7 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1" t="b">
         <v>0</v>
@@ -823,24 +823,24 @@
         <v>5</v>
       </c>
       <c r="K7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -858,24 +858,24 @@
         <v>5</v>
       </c>
       <c r="K8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -893,24 +893,24 @@
         <v>5</v>
       </c>
       <c r="K9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -928,24 +928,24 @@
         <v>5</v>
       </c>
       <c r="K10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -963,24 +963,24 @@
         <v>5</v>
       </c>
       <c r="K11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -998,18 +998,18 @@
         <v>5</v>
       </c>
       <c r="K12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="1" t="b">
         <v>1</v>
@@ -1033,7 +1033,7 @@
         <v>5</v>
       </c>
       <c r="K13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
